--- a/data_source/GeoData/REGION_MUNICIPALITY_MAPPING.xlsx
+++ b/data_source/GeoData/REGION_MUNICIPALITY_MAPPING.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmladenov\Desktop\github_repos\COV-BG\data_source\GeoData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F67FE19-0C04-474C-8488-90C7CAB9FC05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDA6163C-8DFA-46F8-B8E8-7D06FE9FBF66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CE19FE1B-CF57-43AB-9859-127EC43E8727}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CE19FE1B-CF57-43AB-9859-127EC43E8727}"/>
   </bookViews>
   <sheets>
     <sheet name="REG_MUN_MAP" sheetId="1" r:id="rId1"/>
+    <sheet name="REG_MAPPING" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1978" uniqueCount="832">
   <si>
     <t>VAR01</t>
   </si>
@@ -2914,8 +2915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF99FA26-D720-4113-9EE3-D8BEED56D225}">
   <dimension ref="A1:G266"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9049,4 +9050,430 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFBFF5D1-DD34-428D-9F41-434AEC119163}">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>